--- a/similarities/split_global/harmonic_similarity_timestamps_194.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_194.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,142 +484,152 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:41.320000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
+          <t>('0:00:21.140000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=63.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:02:14.220000', '0:02:19.560000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'D:maj'], ['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:43.040000', '0:00:46.660000'), ('0:00:44.160000', '0:00:47.280000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.580000', '0:00:13.220000'), ('0:00:11.260000', '0:00:13.900000')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=43.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=10.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -628,570 +638,584 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'B', 'E:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'E', 'A:min']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:22.940000', '0:00:27.713000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:22.778458', '0:00:28.978185')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=22.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=22.778458']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:22.098788')]</t>
+          <t>('0:01:00.761383', '0:01:09.294716')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['E', 'A', 'E', 'B', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D', 'A']]</t>
+          <t>['A', 'D/5', 'A', 'E/4', 'D/5']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:24.400000')]</t>
+          <t>('0:00:06.726778', '0:00:16.305010')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.446618', '0:00:13.878853')]</t>
+          <t>('0:00:17.913000', '0:00:27.467000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=0.446618']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:01:41.060000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:22.680000', '0:00:41.840000')]</t>
+          <t>('0:00:15.300000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=22.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:17.282018')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_98</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:7']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'D:7']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:42.140000', '0:00:47.440000')]</t>
+          <t>('0:01:43.710000', '0:01:49.060000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:42.290000', '0:00:47.770000')]</t>
+          <t>('0:00:33.340317', '0:00:56.455803')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=42.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=103.71</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=42.29']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=33.340317</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:09.280000', '0:00:11.680000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:29.888683', '0:00:38.514896')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=29.888683</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>jaah_33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min7', 'D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:min7', 'Gb:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:11.840000', '0:00:16.560000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:01.210000', '0:00:03.150000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=11.84</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=1.21</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
+          <t>('0:04:21.828000', '0:04:35.800000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000'), ('0:00:26.960000', '0:00:33.500000'), ('0:00:10.160000', '0:00:13.840000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:17.500000'), ('0:00:40.380000', '0:00:42.280000'), ('0:01:28.480000', '0:01:40.380000')]</t>
+          <t>('0:01:56.690000', '0:02:02.570000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=88.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
